--- a/medicine/Mort/Cimetière_de_la_Transfiguration/Cimetière_de_la_Transfiguration.xlsx
+++ b/medicine/Mort/Cimetière_de_la_Transfiguration/Cimetière_de_la_Transfiguration.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_la_Transfiguration</t>
+          <t>Cimetière_de_la_Transfiguration</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière de la Transfiguration (en russe : Преображенское кладбище, Preobrajenskoïé kladbichtché) est un cimetière situé dans la partie orientale de Moscou.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_la_Transfiguration</t>
+          <t>Cimetière_de_la_Transfiguration</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière de la Transfiguration a longtemps été associé aux vieux-croyants. Il a en effet été inauguré en 1777 par un marchand théodosien (Fedosseïevtsy (en), branche rigoriste des vieux-croyants n'ordonnant pas de prêtres). À cette époque, le cimetière était situé à la périphérie de la ville, mais en dehors du territoire de Moscou. La plupart des membres de la branche aînée vieille-ritualiste sans prêtres de la célèbre famille d'entrepreneurs Morozov y est enterrée, dont Alexeï Morozov. 
 Le cimetière est rapidement devenu le noyau spirituel et administratif de tous les vieux-croyants sans prêtres de Russie, tout comme le cimetière Rogojskoïe est devenu un centre administratif et culturel d'importance pour la plupart des vieux-croyants acceptant d'ordonner des prêtres (Popovtsy (en)).
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_la_Transfiguration</t>
+          <t>Cimetière_de_la_Transfiguration</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,6 +559,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -552,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_la_Transfiguration</t>
+          <t>Cimetière_de_la_Transfiguration</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -570,7 +586,9 @@
           <t>Liens internes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Église vieille-orthodoxe pomore
 Église vieille-orthodoxe pomore de Russie
